--- a/pyvulnerability/tests/test_fragility/table_fragility_params.xlsx
+++ b/pyvulnerability/tests/test_fragility/table_fragility_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salvatore\Dropbox\SalvIac\pyvulnerability\pyvulnerability\tests\test_fragility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C098527-7C9A-4087-8F67-45424A071C36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E87124-D077-4F33-9041-3A57B4B8B103}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532" xr2:uid="{0244DEE1-B3CC-441E-9420-87E07DE91900}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>Test 1a</t>
   </si>
@@ -103,6 +103,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,11 +135,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B28AAE-E421-4AB9-A7F1-6AD2BEF5CCCE}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,6 +968,497 @@
         <v>0.52063496472696602</v>
       </c>
     </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.88979437213370705</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.8391820376314201</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2.9620228785090701</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4.1343812689580304</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.71022800903328</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2.86004031197775</v>
+      </c>
+      <c r="H19" s="2">
+        <v>4.0227989321472402</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2.5542406018329902</v>
+      </c>
+      <c r="J19" s="2">
+        <v>3.8245414691060899</v>
+      </c>
+      <c r="K19" s="2">
+        <v>3.27289349962233</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.23766152258506801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.58251360992908197</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.8434683704279899</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3.2398347891099601</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4.64075148450768</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.7592619102150799</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3.1505800798700201</v>
+      </c>
+      <c r="H20" s="2">
+        <v>4.5291419950415603</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2.71296937206901</v>
+      </c>
+      <c r="J20" s="2">
+        <v>4.1805629109923501</v>
+      </c>
+      <c r="K20" s="2">
+        <v>3.3913930466818201</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.27620802567379599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.13943379644454101</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.899244546417029</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.9514181507946</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3.1412341857277299</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.83120278542500103</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.85363215495821</v>
+      </c>
+      <c r="H21" s="2">
+        <v>3.00195231835395</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1.3294124170684301</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2.4472879882602698</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1.6074612664421299</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.48765896658777702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.82840204794705297</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.84125085067202</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3.11010563682219</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.48829041581602</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1.69823582316183</v>
+      </c>
+      <c r="G22" s="2">
+        <v>2.9563122222423401</v>
+      </c>
+      <c r="H22" s="2">
+        <v>4.2894715560731198</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2.6455036145828701</v>
+      </c>
+      <c r="J22" s="2">
+        <v>4.0572434229815704</v>
+      </c>
+      <c r="K22" s="2">
+        <v>3.48431458876862</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.23512471662126699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.58062235950377905</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.8956251113643301</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3.3826842374033301</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4.8926817811799301</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1.8238291449880899</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3.3106605645393898</v>
+      </c>
+      <c r="H23" s="2">
+        <v>4.80352352850685</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2.89552826135666</v>
+      </c>
+      <c r="J23" s="2">
+        <v>4.4900628190657397</v>
+      </c>
+      <c r="K23" s="2">
+        <v>3.6957991490286801</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.27730427979621203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.15130842342012299</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.91854064742951502</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.9437925945739301</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3.0809833822912198</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.84601384311724603</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.83490549479903</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2.9240175907711801</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1.3161797225824901</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2.3636432914291299</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1.5671645491941699</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.464158597071259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.472961969310638</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.40263300226022</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2.8629179160512099</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4.71667259405179</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1.1260008555617</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2.4666878844750402</v>
+      </c>
+      <c r="H25" s="2">
+        <v>4.1282817303006798</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1.91319974466522</v>
+      </c>
+      <c r="J25" s="2">
+        <v>3.5714398770790301</v>
+      </c>
+      <c r="K25" s="2">
+        <v>2.6034134871382899</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.376381335213956</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.47637346880907799</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.5749353999054501</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2.8277592757194401</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4.1061041492832002</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1.5145996363593299</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2.8340081144844298</v>
+      </c>
+      <c r="H26" s="2">
+        <v>4.1564017079976301</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2.4244001440016199</v>
+      </c>
+      <c r="J26" s="2">
+        <v>3.97338706531376</v>
+      </c>
+      <c r="K26" s="2">
+        <v>3.17924629302204</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.32050701838781098</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="2">
+        <v>8.7983115419867003E-2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.80639425427247902</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2.02518188884269</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3.5661373153142102</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.75400216135074605</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2.0146784404475602</v>
+      </c>
+      <c r="H27" s="2">
+        <v>3.6061686246909899</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1.45996936904247</v>
+      </c>
+      <c r="J27" s="2">
+        <v>3.24084116161344</v>
+      </c>
+      <c r="K27" s="2">
+        <v>2.1133033392335001</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.57945857115788901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1.30134046061924</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2.4720944895758201</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4.23727993558217</v>
+      </c>
+      <c r="E28" s="2">
+        <v>6.4344759763207096</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1.18690546765045</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2.5083962896152099</v>
+      </c>
+      <c r="H28" s="2">
+        <v>4.0696375360131203</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1.7357278522019299</v>
+      </c>
+      <c r="J28" s="2">
+        <v>3.3001587376851398</v>
+      </c>
+      <c r="K28" s="2">
+        <v>2.1572759000607702</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.478433436228556</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.6776263236795901</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2.4995005871739502</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3.4158689437691798</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4.3214510286711398</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1.86408702523548</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3.0355773226931202</v>
+      </c>
+      <c r="H29" s="2">
+        <v>4.0878551278134703</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2.36732307610274</v>
+      </c>
+      <c r="J29" s="2">
+        <v>3.63509757042711</v>
+      </c>
+      <c r="K29" s="2">
+        <v>2.7212962731707999</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.32347473505109597</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.26760396775574702</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1.10505864468689</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2.4171979409211701</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4.0491127059768504</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.88405535198619001</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2.25219249603736</v>
+      </c>
+      <c r="H30" s="2">
+        <v>3.9505744223444199</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1.47744744552911</v>
+      </c>
+      <c r="J30" s="2">
+        <v>3.2808655639175401</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1.9640822369853099</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.60365147315607504</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:K1"/>
